--- a/社团系统开发文档.xlsx
+++ b/社团系统开发文档.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangyida/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangyida/Documents/project/Community-system/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C0F078-238F-8541-9915-D90E34B5EBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0494A786-B9E4-964B-AC39-737DCB2A12B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="1280" windowWidth="28040" windowHeight="16460" xr2:uid="{E3AB649C-A819-4F45-AFC1-EA93323AAA53}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16460" xr2:uid="{E3AB649C-A819-4F45-AFC1-EA93323AAA53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>社团系统开发文档</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>李春莹</t>
+  </si>
+  <si>
+    <t>韩来宁</t>
+  </si>
+  <si>
+    <t>朱新宇</t>
+  </si>
+  <si>
+    <t>图片表curd</t>
   </si>
 </sst>
 </file>
@@ -139,10 +148,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6B1693-B5D7-8F46-876B-7800AD3F3780}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,55 +478,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -526,6 +535,9 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -534,6 +546,9 @@
       <c r="B5" t="s">
         <v>18</v>
       </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -542,6 +557,9 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -550,6 +568,9 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -603,6 +624,14 @@
       </c>
       <c r="B13" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/社团系统开发文档.xlsx
+++ b/社团系统开发文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangyida/Documents/project/Community-system/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0494A786-B9E4-964B-AC39-737DCB2A12B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337FB4CF-DE81-9E47-A47A-4B38AC34DEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16460" xr2:uid="{E3AB649C-A819-4F45-AFC1-EA93323AAA53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>社团系统开发文档</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>图片表curd</t>
+  </si>
+  <si>
+    <t>田春雷</t>
+  </si>
+  <si>
+    <t>李文龙</t>
   </si>
 </sst>
 </file>
@@ -469,7 +475,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -609,6 +615,9 @@
       <c r="B11" t="s">
         <v>15</v>
       </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -625,6 +634,9 @@
       <c r="B13" t="s">
         <v>17</v>
       </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -632,6 +644,9 @@
       </c>
       <c r="B14" t="s">
         <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
